--- a/tumlknexpectimax/excel_data/input_data_residential_munich_bsg.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential_munich_bsg.xlsx
@@ -703,6 +703,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -781,7 +782,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>220258.5472510673</c:v>
@@ -796,7 +797,7 @@
                   <c:v>220258.5472510673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>220258.5472510673</c:v>
@@ -805,7 +806,7 @@
                   <c:v>136195.87571102803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180489.8749974439</c:v>
+                  <c:v>81959.434330663411</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>181766.91113571086</c:v>
@@ -927,13 +928,13 @@
                   <c:v>117354.15161378775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241088.66761378772</c:v>
+                  <c:v>99287.142993292597</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>121030.53463843174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117354.15161378775</c:v>
+                  <c:v>91410.786993292611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1023,7 @@
                   <c:v>22950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22950</c:v>
+                  <c:v>160450</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93800</c:v>
@@ -1138,7 +1139,7 @@
                   <c:v>133630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150884</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>215594</c:v>
@@ -1159,7 +1160,7 @@
                   <c:v>135438.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150438.20000000001</c:v>
+                  <c:v>90438.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>245231.2</c:v>
@@ -1186,11 +1187,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="63178752"/>
-        <c:axId val="104600640"/>
+        <c:axId val="156404736"/>
+        <c:axId val="94001920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63178752"/>
+        <c:axId val="156404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,13 +1213,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104600640"/>
+        <c:crossAx val="94001920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1226,7 +1228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104600640"/>
+        <c:axId val="94001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,19 +1251,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63178752"/>
+        <c:crossAx val="156404736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1291,6 +1295,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1339,7 +1344,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>220258.5472510673</c:v>
+                  <c:v>122492.30468757232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>181054.59289743542</c:v>
@@ -1373,6 +1378,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1509,7 +1515,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1521,7 +1527,7 @@
                   <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762708578561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11938.918689039821</c:v>
@@ -1568,11 +1574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63530496"/>
-        <c:axId val="63382080"/>
+        <c:axId val="180438016"/>
+        <c:axId val="156662528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63530496"/>
+        <c:axId val="180438016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63382080"/>
+        <c:crossAx val="156662528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63382080"/>
+        <c:axId val="156662528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63530496"/>
+        <c:crossAx val="180438016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,11 +1791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62734336"/>
-        <c:axId val="63383808"/>
+        <c:axId val="85929984"/>
+        <c:axId val="159965760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62734336"/>
+        <c:axId val="85929984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63383808"/>
+        <c:crossAx val="159965760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63383808"/>
+        <c:axId val="159965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62734336"/>
+        <c:crossAx val="85929984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2317,7 +2323,7 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,13 +2450,13 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="W2" s="10">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R3" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="S3" s="11">
         <v>181054.59289743542</v>
@@ -2523,10 +2529,10 @@
       </c>
       <c r="W3" s="10">
         <f>R3+S3+T3+U3</f>
-        <v>783086.74014850263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>685320.49758500769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>488901.15606202511</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>433198.37939566193</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -2737,21 +2743,21 @@
         <v>140422.50368463391</v>
       </c>
       <c r="T6" s="11">
-        <v>22950</v>
+        <v>160450</v>
       </c>
       <c r="U6" s="11">
-        <v>150884</v>
+        <v>210910</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>173834</v>
+        <v>371360</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>450452.37939566193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>647978.37939566188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>652800.75606202509</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R8" s="11">
-        <v>220258.5472510673</v>
+        <v>122492.30468757232</v>
       </c>
       <c r="S8" s="11">
         <v>181054.59289743542</v>
@@ -2898,10 +2904,10 @@
       </c>
       <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>882409.14014850277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>784642.89758500771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>501952.35606202506</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>449448.37939566193</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>387592.626526276</v>
       </c>
       <c r="R11" s="11">
-        <v>180489.8749974439</v>
+        <v>81959.434330663411</v>
       </c>
       <c r="S11" s="11">
         <v>121030.53463843174</v>
@@ -3119,10 +3125,10 @@
       </c>
       <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>542001.60963587556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>443471.16896909516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>458559.26274949865</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3254,24 +3260,24 @@
         <v>181766.91113571086</v>
       </c>
       <c r="S13" s="11">
-        <v>241088.66761378772</v>
+        <v>99287.142993292597</v>
       </c>
       <c r="T13" s="11">
         <v>48000</v>
       </c>
       <c r="U13" s="11">
-        <v>150438.20000000001</v>
+        <v>90438.2</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>198438.2</v>
+        <v>138438.20000000001</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>621293.77874949854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>419492.25412900344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>593031.60963587556</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>181766.91113571086</v>
       </c>
       <c r="S15" s="11">
-        <v>117354.15161378775</v>
+        <v>91410.786993292611</v>
       </c>
       <c r="T15" s="11">
         <v>48000</v>
@@ -3417,16 +3423,16 @@
       </c>
       <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>482559.26274949865</v>
-      </c>
-    </row>
-    <row r="27" spans="16:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>456615.89812900347</v>
+      </c>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -3440,12 +3446,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -3536,7 +3542,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,19 +3563,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3591,7 +3596,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3602,18 +3607,18 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
+        <v>19212.762708578561</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3646,7 +3651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3679,7 +3684,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -6088,7 +6093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -6204,7 +6209,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -6262,7 +6267,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -6320,7 +6325,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -6378,7 +6383,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -6436,7 +6441,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -6552,7 +6557,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -6761,7 +6766,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$W3</f>
-        <v>783086.74014850263</v>
+        <v>685320.49758500769</v>
       </c>
       <c r="D2">
         <f>CAPEX!$W4</f>
@@ -6773,7 +6778,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
-        <v>450452.37939566193</v>
+        <v>647978.37939566188</v>
       </c>
       <c r="G2">
         <f>CAPEX!$W7</f>
@@ -6781,7 +6786,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$W8</f>
-        <v>882409.14014850277</v>
+        <v>784642.89758500771</v>
       </c>
       <c r="I2">
         <f>CAPEX!$W9</f>
@@ -6793,7 +6798,7 @@
       </c>
       <c r="K2">
         <f>CAPEX!$W11</f>
-        <v>542001.60963587556</v>
+        <v>443471.16896909516</v>
       </c>
       <c r="L2">
         <f>CAPEX!$W12</f>
@@ -6801,7 +6806,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$W13</f>
-        <v>621293.77874949854</v>
+        <v>419492.25412900344</v>
       </c>
       <c r="N2">
         <f>CAPEX!$W14</f>
@@ -6809,7 +6814,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$W15</f>
-        <v>482559.26274949865</v>
+        <v>456615.89812900347</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -6835,11 +6840,11 @@
       </c>
       <c r="G3" s="11">
         <f>IF(D2-F2&gt;0,D2-F2,0)</f>
-        <v>38448.776666363177</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>99322.40000000014</v>
+        <v>99322.400000000023</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
@@ -6931,7 +6936,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>17254</v>
+        <v>214779.99999999994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7169,7 +7174,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>1004</v>
+        <v>198529.99999999994</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -7241,11 +7246,11 @@
       </c>
       <c r="N11">
         <f>IF(N2-K2&gt;0,N2-K2,0)</f>
-        <v>51030</v>
+        <v>149560.4406667804</v>
       </c>
       <c r="O11">
         <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
-        <v>24000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -7287,14 +7292,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>162734.51599999989</v>
+        <v>-39067.008620495209</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>24000</v>
+        <v>-1943.3646204951801</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -7383,7 +7388,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>28262.169113622978</v>
+        <v>-173539.35550687212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138734.51599999989</v>
+        <v>-37123.644000000029</v>
       </c>
       <c r="N15">
         <v>0</v>
